--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer\60DaysOfCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7BA7FD9-CBB6-42B7-849F-34666B0EA6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7751C63C-9131-493D-8717-A615B734457F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="1248" windowWidth="17280" windowHeight="11256" xr2:uid="{F1B318D1-D40C-4119-A887-75142806E720}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F1B318D1-D40C-4119-A887-75142806E720}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode progress" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">    Date</t>
   </si>
@@ -50,13 +50,37 @@
   </si>
   <si>
     <t xml:space="preserve">      Others Dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Two Binary Tree </t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>Jewels and Stones</t>
+  </si>
+  <si>
+    <t>hashing</t>
+  </si>
+  <si>
+    <t>Contiguous Array</t>
+  </si>
+  <si>
+    <t>Remove Outermost Parentheses</t>
+  </si>
+  <si>
+    <t>stack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,8 +88,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,6 +105,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -91,10 +133,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE5C4D8-93DF-4049-806D-D9F6F1D1FD7D}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,11 +504,102 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>44333</v>
-      </c>
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3">
+        <v>617</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4">
+        <v>771</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5">
+        <v>525</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4">
+        <v>1021</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer\60DaysOfCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7751C63C-9131-493D-8717-A615B734457F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED650C8-F8D9-4AFB-92D5-F264CA025560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F1B318D1-D40C-4119-A887-75142806E720}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{F1B318D1-D40C-4119-A887-75142806E720}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode progress" sheetId="1" r:id="rId1"/>
-    <sheet name="CodeForces" sheetId="2" r:id="rId2"/>
-    <sheet name="CodeChef" sheetId="3" r:id="rId3"/>
-    <sheet name="GFG" sheetId="4" r:id="rId4"/>
+    <sheet name="GFG" sheetId="4" r:id="rId2"/>
+    <sheet name="CodeForces" sheetId="2" r:id="rId3"/>
+    <sheet name="CodeChef" sheetId="3" r:id="rId4"/>
     <sheet name="Contests" sheetId="5" r:id="rId5"/>
+    <sheet name="atcoder" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t xml:space="preserve">    Date</t>
   </si>
@@ -52,35 +54,59 @@
     <t xml:space="preserve">      Others Dates</t>
   </si>
   <si>
-    <t xml:space="preserve">Merge Two Binary Tree </t>
-  </si>
-  <si>
-    <t>Easy</t>
-  </si>
-  <si>
-    <t>Binary Tree</t>
-  </si>
-  <si>
-    <t>Jewels and Stones</t>
-  </si>
-  <si>
-    <t>hashing</t>
-  </si>
-  <si>
-    <t>Contiguous Array</t>
-  </si>
-  <si>
-    <t>Remove Outermost Parentheses</t>
-  </si>
-  <si>
-    <t>stack</t>
+    <t>morris tree</t>
+  </si>
+  <si>
+    <t>contests</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Atcoder - ABC207</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Repression</t>
+  </si>
+  <si>
+    <t> Hydrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Many Segments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A </t>
+  </si>
+  <si>
+    <t>Maxi-Buying</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Swappable</t>
+  </si>
+  <si>
+    <t>KAIBUNsyo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,8 +120,37 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,24 +159,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -129,20 +196,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE5C4D8-93DF-4049-806D-D9F6F1D1FD7D}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,135 +564,320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="5"/>
+      <c r="O1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>44370</v>
-      </c>
+      <c r="A2" s="10"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3">
-        <v>617</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4">
-        <v>771</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5">
-        <v>525</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4">
-        <v>1021</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -604,49 +886,618 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112FD2ED-6393-4A3E-BF42-BCEC4868A47F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D516577B-5BA6-4DB2-84F7-AA10AD03F7ED}">
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G16:G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A54C2B-F7E1-4F07-B541-984226CF0137}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112FD2ED-6393-4A3E-BF42-BCEC4868A47F}">
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D516577B-5BA6-4DB2-84F7-AA10AD03F7ED}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A54C2B-F7E1-4F07-B541-984226CF0137}">
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D552D6-DE2C-477C-BFBE-1C288B4B035B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233D2401-B117-4209-AA54-4B6EBCF134DF}">
+  <dimension ref="A1:R13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1" display="https://atcoder.jp/contests/abc207/tasks/abc207_a" xr:uid="{C7274991-C22A-461B-B611-20CE06782E28}"/>
+    <hyperlink ref="G6" r:id="rId2" display="https://atcoder.jp/contests/abc207/tasks/abc207_b" xr:uid="{8B8FB0A1-D665-46C0-B4B0-658978C195B9}"/>
+    <hyperlink ref="G7" r:id="rId3" display="https://atcoder.jp/contests/abc207/tasks/abc207_c" xr:uid="{8EF3FD16-5844-420B-BD4B-26B12123F3F1}"/>
+    <hyperlink ref="G10" r:id="rId4" display="https://atcoder.jp/contests/abc206/tasks/abc206_a" xr:uid="{96938AF7-C37F-405F-8C17-5B93F61F309A}"/>
+    <hyperlink ref="G11" r:id="rId5" display="https://atcoder.jp/contests/abc206/tasks/abc206_b" xr:uid="{B9BC7A9C-7D2F-4BFA-B7D4-C426A0B09C92}"/>
+    <hyperlink ref="G12" r:id="rId6" display="https://atcoder.jp/contests/abc206/tasks/abc206_c" xr:uid="{3488461A-4A48-4DB3-99CF-A8801BA4ED09}"/>
+    <hyperlink ref="G13" r:id="rId7" display="https://atcoder.jp/contests/abc206/tasks/abc206_d" xr:uid="{77A81FC5-EDD8-4D5F-8A38-373D03627A90}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC2E145-214C-4A35-AA4F-3EDEB8C16689}">
+  <dimension ref="I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer\60DaysOfCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED650C8-F8D9-4AFB-92D5-F264CA025560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B60A696-E76D-48FE-87BF-AB164C24790E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{F1B318D1-D40C-4119-A887-75142806E720}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{F1B318D1-D40C-4119-A887-75142806E720}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode progress" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="CodeChef" sheetId="3" r:id="rId4"/>
     <sheet name="Contests" sheetId="5" r:id="rId5"/>
     <sheet name="atcoder" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
+    <sheet name="general" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t xml:space="preserve">    Date</t>
   </si>
@@ -54,9 +54,6 @@
     <t xml:space="preserve">      Others Dates</t>
   </si>
   <si>
-    <t>morris tree</t>
-  </si>
-  <si>
     <t>contests</t>
   </si>
   <si>
@@ -100,13 +97,22 @@
   </si>
   <si>
     <t>KAIBUNsyo</t>
+  </si>
+  <si>
+    <t>03_06-2021</t>
+  </si>
+  <si>
+    <t>Depth First Search, Breadth First Search (Finding connected components and transitive closures)</t>
+  </si>
+  <si>
+    <t>codechef.com - FIRESC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +154,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -216,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -236,6 +249,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -555,7 +572,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,7 +1188,7 @@
   <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L9"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1181,11 +1198,11 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -1226,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233D2401-B117-4209-AA54-4B6EBCF134DF}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1278,13 +1295,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -1293,7 +1310,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -1309,7 +1326,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="14">
         <v>1</v>
@@ -1318,7 +1335,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -1334,7 +1351,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -1343,7 +1360,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -1362,14 +1379,14 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="12"/>
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -1378,7 +1395,7 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1394,7 +1411,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="14">
         <v>1</v>
@@ -1403,7 +1420,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1419,7 +1436,7 @@
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="14">
         <v>1</v>
@@ -1428,7 +1445,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1444,7 +1461,7 @@
     </row>
     <row r="13" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="16">
         <v>1</v>
@@ -1453,7 +1470,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -1466,6 +1483,11 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1484,20 +1506,75 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC2E145-214C-4A35-AA4F-3EDEB8C16689}">
-  <dimension ref="I6"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44380</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G8" s="19"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1" display="https://www.codechef.com/problems/FIRESC" xr:uid="{BB208588-E202-4158-9F77-FEA74728072B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>